--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,12 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Wnt16</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H2">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I2">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J2">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1341725</v>
+        <v>0.1557005</v>
       </c>
       <c r="N2">
-        <v>0.268345</v>
+        <v>0.311401</v>
       </c>
       <c r="O2">
-        <v>0.01633512969336317</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P2">
-        <v>0.01188426112752495</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q2">
-        <v>0.0532086541525</v>
+        <v>0.06490032801399999</v>
       </c>
       <c r="R2">
-        <v>0.21283461661</v>
+        <v>0.259601312056</v>
       </c>
       <c r="S2">
-        <v>0.006791591959027531</v>
+        <v>0.01710965818112174</v>
       </c>
       <c r="T2">
-        <v>0.003824012897072992</v>
+        <v>0.01116792765957201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H3">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I3">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J3">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7211927040052828</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P3">
-        <v>0.787031622511101</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q3">
-        <v>2.349151423041</v>
+        <v>2.469159438492</v>
       </c>
       <c r="R3">
-        <v>14.094908538246</v>
+        <v>14.814956630952</v>
       </c>
       <c r="S3">
-        <v>0.2998474246226301</v>
+        <v>0.6509439209332715</v>
       </c>
       <c r="T3">
-        <v>0.253244105173371</v>
+        <v>0.6373325412873032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H4">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I4">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J4">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.007277666666666666</v>
+        <v>0.024117</v>
       </c>
       <c r="N4">
-        <v>0.021833</v>
+        <v>0.072351</v>
       </c>
       <c r="O4">
-        <v>0.0008860357291178598</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P4">
-        <v>0.0009669234500260938</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q4">
-        <v>0.002886096992333333</v>
+        <v>0.010052640876</v>
       </c>
       <c r="R4">
-        <v>0.017316581954</v>
+        <v>0.060315845256</v>
       </c>
       <c r="S4">
-        <v>0.0003683835541099408</v>
+        <v>0.002650175345320746</v>
       </c>
       <c r="T4">
-        <v>0.0003111281133682187</v>
+        <v>0.002594759599672753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +726,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H5">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I5">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J5">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.927182</v>
+        <v>1.3023455</v>
       </c>
       <c r="N5">
-        <v>3.854364</v>
+        <v>2.604691</v>
       </c>
       <c r="O5">
-        <v>0.2346290626821072</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P5">
-        <v>0.1706991680729343</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q5">
-        <v>0.764260638558</v>
+        <v>0.542854070074</v>
       </c>
       <c r="R5">
-        <v>3.057042554232</v>
+        <v>2.171416280296</v>
       </c>
       <c r="S5">
-        <v>0.09755079300737927</v>
+        <v>0.1431124905746743</v>
       </c>
       <c r="T5">
-        <v>0.05492607518684472</v>
+        <v>0.0934133180803475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,60 +779,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.396569</v>
+        <v>0.032632</v>
       </c>
       <c r="H6">
-        <v>0.793138</v>
+        <v>0.097896</v>
       </c>
       <c r="I6">
-        <v>0.4157660261361071</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J6">
-        <v>0.3217711943585838</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1820473333333333</v>
+        <v>0.1557005</v>
       </c>
       <c r="N6">
-        <v>0.5461419999999999</v>
+        <v>0.311401</v>
       </c>
       <c r="O6">
-        <v>0.02216375785150397</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P6">
-        <v>0.02418712530775207</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q6">
-        <v>0.07219432893266665</v>
+        <v>0.005080818716</v>
       </c>
       <c r="R6">
-        <v>0.433165973596</v>
+        <v>0.030484912296</v>
       </c>
       <c r="S6">
-        <v>0.009214937526162748</v>
+        <v>0.001339455040847459</v>
       </c>
       <c r="T6">
-        <v>0.007782720198376111</v>
+        <v>0.001311446743214782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.396569</v>
+        <v>0.032632</v>
       </c>
       <c r="H7">
-        <v>0.793138</v>
+        <v>0.097896</v>
       </c>
       <c r="I7">
-        <v>0.4157660261361071</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J7">
-        <v>0.3217711943585838</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.039371</v>
+        <v>5.923689</v>
       </c>
       <c r="N7">
-        <v>0.118113</v>
+        <v>17.771067</v>
       </c>
       <c r="O7">
-        <v>0.004793310038624916</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P7">
-        <v>0.005230899530661477</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q7">
-        <v>0.015613318099</v>
+        <v>0.193301819448</v>
       </c>
       <c r="R7">
-        <v>0.09367990859400001</v>
+        <v>1.739716375032</v>
       </c>
       <c r="S7">
-        <v>0.001992895466797391</v>
+        <v>0.05096011311115021</v>
       </c>
       <c r="T7">
-        <v>0.001683152789550699</v>
+        <v>0.07484178901352817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H8">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I8">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J8">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1341725</v>
+        <v>0.024117</v>
       </c>
       <c r="N8">
-        <v>0.268345</v>
+        <v>0.072351</v>
       </c>
       <c r="O8">
-        <v>0.01633512969336317</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P8">
-        <v>0.01188426112752495</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q8">
-        <v>0.04865483950250001</v>
+        <v>0.0007869859440000001</v>
       </c>
       <c r="R8">
-        <v>0.291929037015</v>
+        <v>0.007082873496</v>
       </c>
       <c r="S8">
-        <v>0.006210339689966172</v>
+        <v>0.0002074729189701906</v>
       </c>
       <c r="T8">
-        <v>0.005245107306115766</v>
+        <v>0.0003047019223391469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.032632</v>
+      </c>
+      <c r="H9">
+        <v>0.097896</v>
+      </c>
+      <c r="I9">
+        <v>0.0637108152714361</v>
+      </c>
+      <c r="J9">
+        <v>0.08742743851251183</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.362629</v>
-      </c>
-      <c r="H9">
-        <v>1.087887</v>
-      </c>
-      <c r="I9">
-        <v>0.3801830659776997</v>
-      </c>
-      <c r="J9">
-        <v>0.441349045584976</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.923689</v>
+        <v>1.3023455</v>
       </c>
       <c r="N9">
-        <v>17.771067</v>
+        <v>2.604691</v>
       </c>
       <c r="O9">
-        <v>0.7211927040052828</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P9">
-        <v>0.787031622511101</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q9">
-        <v>2.148101418381001</v>
+        <v>0.042498138356</v>
       </c>
       <c r="R9">
-        <v>19.332912765429</v>
+        <v>0.254988830136</v>
       </c>
       <c r="S9">
-        <v>0.2741852533694761</v>
+        <v>0.01120377420046823</v>
       </c>
       <c r="T9">
-        <v>0.3473556554404695</v>
+        <v>0.01096950083342974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.362629</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H10">
-        <v>1.087887</v>
+        <v>0.188188</v>
       </c>
       <c r="I10">
-        <v>0.3801830659776997</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J10">
-        <v>0.441349045584976</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.007277666666666666</v>
+        <v>0.1557005</v>
       </c>
       <c r="N10">
-        <v>0.021833</v>
+        <v>0.311401</v>
       </c>
       <c r="O10">
-        <v>0.0008860357291178598</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P10">
-        <v>0.0009669234500260938</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q10">
-        <v>0.002639092985666667</v>
+        <v>0.009766988564666667</v>
       </c>
       <c r="R10">
-        <v>0.023751836871</v>
+        <v>0.058601931388</v>
       </c>
       <c r="S10">
-        <v>0.0003368557800618146</v>
+        <v>0.002574868893795472</v>
       </c>
       <c r="T10">
-        <v>0.0004267507418227487</v>
+        <v>0.002521027822506571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1092,60 +1089,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.362629</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H11">
-        <v>1.087887</v>
+        <v>0.188188</v>
       </c>
       <c r="I11">
-        <v>0.3801830659776997</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J11">
-        <v>0.441349045584976</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.927182</v>
+        <v>5.923689</v>
       </c>
       <c r="N11">
-        <v>3.854364</v>
+        <v>17.771067</v>
       </c>
       <c r="O11">
-        <v>0.2346290626821072</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P11">
-        <v>0.1706991680729343</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q11">
-        <v>0.698852081478</v>
+        <v>0.371589061844</v>
       </c>
       <c r="R11">
-        <v>4.193112488868</v>
+        <v>3.344301556596</v>
       </c>
       <c r="S11">
-        <v>0.08920199641795738</v>
+        <v>0.09796193681213873</v>
       </c>
       <c r="T11">
-        <v>0.07533791491113898</v>
+        <v>0.1438702969567484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1157,57 +1154,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.362629</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H12">
-        <v>1.087887</v>
+        <v>0.188188</v>
       </c>
       <c r="I12">
-        <v>0.3801830659776997</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J12">
-        <v>0.441349045584976</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1820473333333333</v>
+        <v>0.024117</v>
       </c>
       <c r="N12">
-        <v>0.5461419999999999</v>
+        <v>0.072351</v>
       </c>
       <c r="O12">
-        <v>0.02216375785150397</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P12">
-        <v>0.02418712530775207</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q12">
-        <v>0.06601564243933333</v>
+        <v>0.001512843332</v>
       </c>
       <c r="R12">
-        <v>0.5941407819539999</v>
+        <v>0.013615589988</v>
       </c>
       <c r="S12">
-        <v>0.008426285413572094</v>
+        <v>0.0003988305311265243</v>
       </c>
       <c r="T12">
-        <v>0.01067496467002059</v>
+        <v>0.000585736346338557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1216,427 +1213,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06272933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.188188</v>
+      </c>
+      <c r="I13">
+        <v>0.1224729396941756</v>
+      </c>
+      <c r="J13">
+        <v>0.1680640148605926</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.362629</v>
-      </c>
-      <c r="H13">
-        <v>1.087887</v>
-      </c>
-      <c r="I13">
-        <v>0.3801830659776997</v>
-      </c>
-      <c r="J13">
-        <v>0.441349045584976</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.039371</v>
+        <v>1.3023455</v>
       </c>
       <c r="N13">
-        <v>0.118113</v>
+        <v>2.604691</v>
       </c>
       <c r="O13">
-        <v>0.004793310038624916</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P13">
-        <v>0.005230899530661477</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q13">
-        <v>0.014277066359</v>
+        <v>0.08169526498466666</v>
       </c>
       <c r="R13">
-        <v>0.128493597231</v>
+        <v>0.490171589908</v>
       </c>
       <c r="S13">
-        <v>0.001822335306666107</v>
+        <v>0.02153730345711485</v>
       </c>
       <c r="T13">
-        <v>0.002308652515408342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1946293333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.583888</v>
-      </c>
-      <c r="I14">
-        <v>0.2040509078861932</v>
-      </c>
-      <c r="J14">
-        <v>0.2368797600564401</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.1341725</v>
-      </c>
-      <c r="N14">
-        <v>0.268345</v>
-      </c>
-      <c r="O14">
-        <v>0.01633512969336317</v>
-      </c>
-      <c r="P14">
-        <v>0.01188426112752495</v>
-      </c>
-      <c r="Q14">
-        <v>0.02611390422666666</v>
-      </c>
-      <c r="R14">
-        <v>0.15668342536</v>
-      </c>
-      <c r="S14">
-        <v>0.003333198044369468</v>
-      </c>
-      <c r="T14">
-        <v>0.002815140924336188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1946293333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.583888</v>
-      </c>
-      <c r="I15">
-        <v>0.2040509078861932</v>
-      </c>
-      <c r="J15">
-        <v>0.2368797600564401</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.923689</v>
-      </c>
-      <c r="N15">
-        <v>17.771067</v>
-      </c>
-      <c r="O15">
-        <v>0.7211927040052828</v>
-      </c>
-      <c r="P15">
-        <v>0.787031622511101</v>
-      </c>
-      <c r="Q15">
-        <v>1.152923640944</v>
-      </c>
-      <c r="R15">
-        <v>10.376312768496</v>
-      </c>
-      <c r="S15">
-        <v>0.1471600260131766</v>
-      </c>
-      <c r="T15">
-        <v>0.1864318618972604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.1946293333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.583888</v>
-      </c>
-      <c r="I16">
-        <v>0.2040509078861932</v>
-      </c>
-      <c r="J16">
-        <v>0.2368797600564401</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.007277666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.021833</v>
-      </c>
-      <c r="O16">
-        <v>0.0008860357291178598</v>
-      </c>
-      <c r="P16">
-        <v>0.0009669234500260938</v>
-      </c>
-      <c r="Q16">
-        <v>0.001416447411555555</v>
-      </c>
-      <c r="R16">
-        <v>0.012748026704</v>
-      </c>
-      <c r="S16">
-        <v>0.0001807963949461044</v>
-      </c>
-      <c r="T16">
-        <v>0.0002290445948351264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.1946293333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.583888</v>
-      </c>
-      <c r="I17">
-        <v>0.2040509078861932</v>
-      </c>
-      <c r="J17">
-        <v>0.2368797600564401</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.927182</v>
-      </c>
-      <c r="N17">
-        <v>3.854364</v>
-      </c>
-      <c r="O17">
-        <v>0.2346290626821072</v>
-      </c>
-      <c r="P17">
-        <v>0.1706991680729343</v>
-      </c>
-      <c r="Q17">
-        <v>0.375086147872</v>
-      </c>
-      <c r="R17">
-        <v>2.250516887232</v>
-      </c>
-      <c r="S17">
-        <v>0.0478762732567705</v>
-      </c>
-      <c r="T17">
-        <v>0.04043517797495062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.1946293333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.583888</v>
-      </c>
-      <c r="I18">
-        <v>0.2040509078861932</v>
-      </c>
-      <c r="J18">
-        <v>0.2368797600564401</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.1820473333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.5461419999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.02216375785150397</v>
-      </c>
-      <c r="P18">
-        <v>0.02418712530775207</v>
-      </c>
-      <c r="Q18">
-        <v>0.03543175112177777</v>
-      </c>
-      <c r="R18">
-        <v>0.3188857600959999</v>
-      </c>
-      <c r="S18">
-        <v>0.004522534911769128</v>
-      </c>
-      <c r="T18">
-        <v>0.005729440439355359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.1946293333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.583888</v>
-      </c>
-      <c r="I19">
-        <v>0.2040509078861932</v>
-      </c>
-      <c r="J19">
-        <v>0.2368797600564401</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.039371</v>
-      </c>
-      <c r="N19">
-        <v>0.118113</v>
-      </c>
-      <c r="O19">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="P19">
-        <v>0.005230899530661477</v>
-      </c>
-      <c r="Q19">
-        <v>0.007662751482666667</v>
-      </c>
-      <c r="R19">
-        <v>0.06896476334400001</v>
-      </c>
-      <c r="S19">
-        <v>0.000978079265161418</v>
-      </c>
-      <c r="T19">
-        <v>0.001239094225702436</v>
+        <v>0.02108695373499913</v>
       </c>
     </row>
   </sheetData>
